--- a/biology/Botanique/Marquise_de_Ganay/Marquise_de_Ganay.xlsx
+++ b/biology/Botanique/Marquise_de_Ganay/Marquise_de_Ganay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Marquise de Ganay' est un cultivar de rosier hybride de thé obtenu en 1909 par le rosiériste français Pierre Guillot (1855-1918)[1],[2].
+'Marquise de Ganay' est un cultivar de rosier hybride de thé obtenu en 1909 par le rosiériste français Pierre Guillot (1855-1918),.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet hybride de thé présente de grosses fleurs roses (26-40 pétales) très parfumées en forme de coupe. La floraison est remontante. Son buisson présente un feuillage vert bronzé. Il est vigoureux et rustique (zone de rusticité 6b à 9b). Il doit être taillé au tiers à l'arrivée du printemps. Il est résistant aux maladies.
 Ce rosier est issu du croisement de 'Liberty' (Dickson, 1900) × 'La France' (Guillot fils, 1867).
-Il a connu un certain renom jusque dans les années 1930, tant en France qu'outre-Manche et figurait même dans des catalogues au Japon[3]. Il doit son nom à une amatrice de roses, connue pour l'art des jardins[4], de la famille de Ganay, la marquise de Ganay, née Berthe de Béhague (1868-1940), épouse du marquis de Ganay (1861-1948), propriétaire du château de Courances.
+Il a connu un certain renom jusque dans les années 1930, tant en France qu'outre-Manche et figurait même dans des catalogues au Japon. Il doit son nom à une amatrice de roses, connue pour l'art des jardins, de la famille de Ganay, la marquise de Ganay, née Berthe de Béhague (1868-1940), épouse du marquis de Ganay (1861-1948), propriétaire du château de Courances.
 </t>
         </is>
       </c>
